--- a/plot/ucache_ipc.xlsx
+++ b/plot/ucache_ipc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="22044" windowHeight="9996"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>平均</t>
   </si>
@@ -70,41 +70,399 @@
     <t>no_opt</t>
   </si>
   <si>
-    <t>32line</t>
-  </si>
-  <si>
     <t>all_opt</t>
+  </si>
+  <si>
+    <t>icache_opt</t>
+  </si>
+  <si>
+    <t>cond_opt</t>
+  </si>
+  <si>
+    <t>compress_opt</t>
+  </si>
+  <si>
+    <t>32line_opt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,52 +472,344 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </left>
       <right style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </right>
       <top style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,10 +820,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -211,71 +861,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -303,7 +953,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -326,11 +976,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -339,13 +989,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -355,7 +1005,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -364,7 +1014,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,7 +1023,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,10 +1031,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -444,260 +1094,376 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
+    <col min="3" max="9" width="12.4333333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.4333333333333" style="3" customWidth="1"/>
+    <col min="12" max="13" width="11.8583333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8583333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.8583333333333" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.8583333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="18" customHeight="1" spans="1:17">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6">
         <v>1.26</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>1.24</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>1.24</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>1.06</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>0.58</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>1.39</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>0.82</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>1.12</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>1.23</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="6">
         <v>0.61</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="3">
+      <c r="O2" s="4"/>
+      <c r="P2" s="6">
         <v>1.55</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="6">
         <v>1.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:17">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6">
         <v>1.193</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>1.118</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1.128</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>0.614</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>0.57</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>0.847</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>0.776</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="3">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6">
         <v>0.589</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="3">
+      <c r="O3" s="4"/>
+      <c r="P3" s="6">
         <v>1.545</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="6">
         <v>1.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="18" customHeight="1" spans="1:17">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6">
+        <v>1.262</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.145</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.143</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.847</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.573</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.216</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.782</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6">
+        <v>0.586</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="6">
+        <v>1.546</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="5" ht="14.55" spans="1:17">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>1.195</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.142</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.152</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.735</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.573</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.328</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.809</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>0.649</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>1.646</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1.065</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="1:17">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>1.261</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.153</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.157</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.576</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.782</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.788</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
+        <v>0.562</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1.043</v>
+      </c>
+    </row>
+    <row r="7" ht="13.95" spans="1:17">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.114</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.581</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.567</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.742</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.783</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>0.549</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <v>1.556</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:17">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6">
         <v>1.246</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D8" s="6">
         <v>1.11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E8" s="6">
         <v>1.127</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F8" s="6">
         <v>0.753</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G8" s="6">
         <v>0.569</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H8" s="6">
         <v>1.189</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I8" s="6">
         <v>0.776</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="3">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6">
         <v>0.589</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="3">
+      <c r="O8" s="4"/>
+      <c r="P8" s="6">
         <v>1.545</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q8" s="6">
         <v>1.063</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3">
-        <v>1.262</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.145</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.143</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.847</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.573</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.216</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.782</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="3">
-        <v>0.586</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="3">
-        <v>1.546</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1.073</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/plot/ucache_ipc.xlsx
+++ b/plot/ucache_ipc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22044" windowHeight="9996"/>
+    <workbookView windowHeight="21624"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,34 +131,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,92 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,181 +276,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,10 +481,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,49 +498,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,164 +528,199 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1098,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1328,12 +1321,12 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0.649</v>
+      <c r="N5" s="6">
+        <v>0.586</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>1.646</v>
+      <c r="P5" s="6">
+        <v>1.546</v>
       </c>
       <c r="Q5" s="7">
         <v>1.065</v>
@@ -1380,7 +1373,7 @@
         <v>1.043</v>
       </c>
     </row>
-    <row r="7" ht="13.95" spans="1:17">
+    <row r="7" ht="14.55" spans="1:17">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
